--- a/Trip Advisor Automation/src/com/cognizant/utilities/Excel_Data.xlsx
+++ b/Trip Advisor Automation/src/com/cognizant/utilities/Excel_Data.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TripAdvisor_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cruise_Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Location Name</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Kid Friendly</t>
+  </si>
+  <si>
+    <t>Cruise Line</t>
+  </si>
+  <si>
+    <t>Cruise Ship</t>
+  </si>
+  <si>
+    <t>AmaWaterways</t>
+  </si>
+  <si>
+    <t>AmaCerto</t>
+  </si>
+  <si>
+    <t>APT</t>
+  </si>
+  <si>
+    <t>AmaLotus</t>
   </si>
 </sst>
 </file>
@@ -416,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -544,12 +562,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>